--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -14,15 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Mikael</t>
+    <t>Jakson</t>
   </si>
   <si>
-    <t>Raul Duster</t>
+    <t xml:space="preserve">Meirinha </t>
   </si>
   <si>
-    <t>Robson RevGol</t>
+    <t>Ana Nery</t>
+  </si>
+  <si>
+    <t>Raul Furtado</t>
   </si>
 </sst>
 </file>
@@ -80,14 +83,14 @@
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -391,7 +394,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -412,7 +415,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>5584996851948</v>
+        <v>5584999776500</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -421,12 +424,12 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>5584986114777</v>
+        <v>5584999737740</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -435,12 +438,12 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>5584996213448</v>
+        <v>5584996153260</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -449,6 +452,20 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5584986114777</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
